--- a/data/trans_orig/Predimed_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>108420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89738</v>
+        <v>89335</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127534</v>
+        <v>129048</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2060720036063178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.170563302577732</v>
+        <v>0.1697989185423883</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2424033306066715</v>
+        <v>0.2452804766420602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -762,19 +762,19 @@
         <v>100494</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86197</v>
+        <v>85462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118054</v>
+        <v>116765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2123737503723167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1821606312383633</v>
+        <v>0.1806070664588076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2494834597333927</v>
+        <v>0.2467593976956854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -783,19 +783,19 @@
         <v>208914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184791</v>
+        <v>183732</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236560</v>
+        <v>236977</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2090559829686428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1849173080065767</v>
+        <v>0.1838575872204376</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2367212503397125</v>
+        <v>0.2371387879501574</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>417705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398591</v>
+        <v>397077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436387</v>
+        <v>436790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7939279963936822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7575966693933284</v>
+        <v>0.7547195233579398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.829436697422268</v>
+        <v>0.8302010814576117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>524</v>
@@ -833,19 +833,19 @@
         <v>372700</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355140</v>
+        <v>356429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386997</v>
+        <v>387732</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7876262496276834</v>
+        <v>0.7876262496276832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.750516540266607</v>
+        <v>0.7532406023043146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8178393687616367</v>
+        <v>0.8193929335411925</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>951</v>
@@ -854,19 +854,19 @@
         <v>790405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>762759</v>
+        <v>762342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>814528</v>
+        <v>815587</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7909440170313571</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7632787496602876</v>
+        <v>0.7628612120498426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8150826919934234</v>
+        <v>0.8161424127795626</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>81418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65098</v>
+        <v>65883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101940</v>
+        <v>99667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1779843407188205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1423083222567479</v>
+        <v>0.1440237667859545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2228482524711578</v>
+        <v>0.2178780104855833</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -979,19 +979,19 @@
         <v>96806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82577</v>
+        <v>83460</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111802</v>
+        <v>113336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.236242414459862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2015193182086042</v>
+        <v>0.2036732633344944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2728404115054894</v>
+        <v>0.2765832585335153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>216</v>
@@ -1000,19 +1000,19 @@
         <v>178223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158389</v>
+        <v>156651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203997</v>
+        <v>202415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2055121944352873</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1826407429088372</v>
+        <v>0.1806375712326745</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2352327446606469</v>
+        <v>0.2334081776037551</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>376024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>355502</v>
+        <v>357775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>392344</v>
+        <v>391559</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8220156592811794</v>
+        <v>0.8220156592811796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7771517475288421</v>
+        <v>0.7821219895144166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8576916777432521</v>
+        <v>0.8559762332140453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -1050,19 +1050,19 @@
         <v>312966</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>297970</v>
+        <v>296436</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327195</v>
+        <v>326312</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7637575855401381</v>
+        <v>0.763757585540138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7271595884945105</v>
+        <v>0.7234167414664844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.798480681791396</v>
+        <v>0.7963267366655052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>813</v>
@@ -1071,19 +1071,19 @@
         <v>688991</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>663217</v>
+        <v>664799</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>708825</v>
+        <v>710563</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7944878055647128</v>
+        <v>0.7944878055647125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7647672553393531</v>
+        <v>0.7665918223962449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8173592570911629</v>
+        <v>0.8193624287673255</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>96766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78746</v>
+        <v>80041</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116018</v>
+        <v>116751</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2175275735916344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1770208115519372</v>
+        <v>0.1799301539518595</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2608070122043155</v>
+        <v>0.2624539199524522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1196,19 +1196,19 @@
         <v>43116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33625</v>
+        <v>33535</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54423</v>
+        <v>54964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2443827497870153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1905864176314745</v>
+        <v>0.1900763356784486</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.308473892120964</v>
+        <v>0.3115379373305716</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -1217,19 +1217,19 @@
         <v>139881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121346</v>
+        <v>119063</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161679</v>
+        <v>160441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2251538520800125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1953192983314988</v>
+        <v>0.1916451391878543</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2602397792811826</v>
+        <v>0.2582474169670598</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>348077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>328825</v>
+        <v>328092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>366097</v>
+        <v>364802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7824724264083657</v>
+        <v>0.7824724264083658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7391929877956844</v>
+        <v>0.7375460800475476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8229791884480631</v>
+        <v>0.82006984604814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -1267,19 +1267,19 @@
         <v>133311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122004</v>
+        <v>121463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142802</v>
+        <v>142892</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7556172502129846</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6915261078790358</v>
+        <v>0.6884620626694283</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8094135823685255</v>
+        <v>0.8099236643215513</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>570</v>
@@ -1288,19 +1288,19 @@
         <v>481389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>459591</v>
+        <v>460829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>499924</v>
+        <v>502207</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7748461479199875</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7397602207188175</v>
+        <v>0.7417525830329402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8046807016685013</v>
+        <v>0.8083548608121459</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>205991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178806</v>
+        <v>180053</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234344</v>
+        <v>236230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.196926683228893</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1709375619203628</v>
+        <v>0.1721296503804656</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2240320668300417</v>
+        <v>0.2258344455306651</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -1413,19 +1413,19 @@
         <v>168371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148673</v>
+        <v>150008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189038</v>
+        <v>190068</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2057096144962189</v>
+        <v>0.2057096144962188</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1816425823676643</v>
+        <v>0.183273453882317</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2309590641870704</v>
+        <v>0.2322179064407568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>466</v>
@@ -1434,19 +1434,19 @@
         <v>374363</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>338651</v>
+        <v>338217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>408251</v>
+        <v>408741</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2007822299252512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1816287577909356</v>
+        <v>0.1813960842471468</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2189573474880512</v>
+        <v>0.2192203783899218</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>840040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>811687</v>
+        <v>809801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>867225</v>
+        <v>865978</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.803073316771107</v>
+        <v>0.8030733167711072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7759679331699584</v>
+        <v>0.7741655544693347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8290624380796372</v>
+        <v>0.8278703496195343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>915</v>
@@ -1484,19 +1484,19 @@
         <v>650120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>629453</v>
+        <v>628423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>669818</v>
+        <v>668483</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7942903855037812</v>
+        <v>0.7942903855037811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7690409358129296</v>
+        <v>0.7677820935592428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8183574176323359</v>
+        <v>0.8167265461176829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1755</v>
@@ -1505,19 +1505,19 @@
         <v>1490159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1456271</v>
+        <v>1455781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1525871</v>
+        <v>1526305</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7992177700747487</v>
+        <v>0.7992177700747488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7810426525119488</v>
+        <v>0.7807796216100779</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8183712422090642</v>
+        <v>0.8186039157528531</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>53830</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41720</v>
+        <v>39624</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71611</v>
+        <v>70607</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1035921779901572</v>
+        <v>0.1035921779901573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08028695237721153</v>
+        <v>0.07625374117879601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1378101996966967</v>
+        <v>0.1358780227884102</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -1630,19 +1630,19 @@
         <v>135089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117452</v>
+        <v>117956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>154452</v>
+        <v>153069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1737282995765189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1510462508387168</v>
+        <v>0.1516937828841609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1986290061543077</v>
+        <v>0.1968502406134216</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -1651,19 +1651,19 @@
         <v>188920</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164253</v>
+        <v>166569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>211983</v>
+        <v>213215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1456334740649757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1266186129659617</v>
+        <v>0.1284039742727429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.163412342485077</v>
+        <v>0.1643617630398258</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>465808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448027</v>
+        <v>449031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>477918</v>
+        <v>480014</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8964078220098427</v>
+        <v>0.8964078220098429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8621898003033033</v>
+        <v>0.8641219772115891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9197130476227885</v>
+        <v>0.9237462588212039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1012</v>
@@ -1701,19 +1701,19 @@
         <v>642501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>623138</v>
+        <v>624521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>660138</v>
+        <v>659634</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.826271700423481</v>
+        <v>0.8262717004234811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8013709938456922</v>
+        <v>0.8031497593865786</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8489537491612829</v>
+        <v>0.8483062171158395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1468</v>
@@ -1722,19 +1722,19 @@
         <v>1108309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1085246</v>
+        <v>1084014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1132976</v>
+        <v>1130660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8543665259350244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8365876575149225</v>
+        <v>0.8356382369601736</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8733813870340383</v>
+        <v>0.8715960257272571</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>14128</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5906</v>
+        <v>6266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28604</v>
+        <v>28902</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07121711807121341</v>
+        <v>0.07121711807121342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02977030125702491</v>
+        <v>0.03158729458185276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1441834986354726</v>
+        <v>0.1456864275418293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -1847,19 +1847,19 @@
         <v>92775</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77356</v>
+        <v>76345</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112817</v>
+        <v>108622</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.120351248831963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1003497047836719</v>
+        <v>0.09903814455812159</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1463514012498771</v>
+        <v>0.1409095744646909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -1868,19 +1868,19 @@
         <v>106903</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91369</v>
+        <v>88434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128126</v>
+        <v>127717</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1102944821817535</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09426764917001509</v>
+        <v>0.09123962754288782</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1321904239070287</v>
+        <v>0.1317683159890512</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>184258</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169782</v>
+        <v>169484</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192480</v>
+        <v>192120</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9287828819287867</v>
+        <v>0.9287828819287868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8558165013645266</v>
+        <v>0.8543135724581704</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.970229698742975</v>
+        <v>0.9684127054181471</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>917</v>
@@ -1918,19 +1918,19 @@
         <v>678091</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>658049</v>
+        <v>662244</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>693510</v>
+        <v>694521</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8796487511680371</v>
+        <v>0.879648751168037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8536485987501222</v>
+        <v>0.8590904255353091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8996502952163279</v>
+        <v>0.9009618554418785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1008</v>
@@ -1939,19 +1939,19 @@
         <v>862350</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>841127</v>
+        <v>841536</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>877884</v>
+        <v>880819</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8897055178182465</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8678095760929708</v>
+        <v>0.8682316840109487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9057323508299849</v>
+        <v>0.9087603724571122</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>560553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>513677</v>
+        <v>514047</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>611831</v>
+        <v>608142</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1755862704056782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.160902756690466</v>
+        <v>0.1610189247407373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1916485050126314</v>
+        <v>0.1904928062960597</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>947</v>
@@ -2064,19 +2064,19 @@
         <v>636651</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>599570</v>
+        <v>597875</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>676615</v>
+        <v>676236</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1858107411183731</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1749884820332896</v>
+        <v>0.1744938538162083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1974745730993798</v>
+        <v>0.1973639215077399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1502</v>
@@ -2085,19 +2085,19 @@
         <v>1197204</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1134737</v>
+        <v>1138897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1251265</v>
+        <v>1260134</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1808791461357462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1714413167053867</v>
+        <v>0.1720698853295617</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1890468630133695</v>
+        <v>0.1903869113548561</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2631913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2580635</v>
+        <v>2584324</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2678789</v>
+        <v>2678419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8244137295943219</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8083514949873682</v>
+        <v>0.8095071937039405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8390972433095337</v>
+        <v>0.8389810752592627</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4013</v>
@@ -2135,19 +2135,19 @@
         <v>2789690</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2749726</v>
+        <v>2750105</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2826771</v>
+        <v>2828466</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8141892588816267</v>
+        <v>0.814189258881627</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8025254269006203</v>
+        <v>0.8026360784922602</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8250115179667105</v>
+        <v>0.8255061461837916</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6565</v>
@@ -2156,19 +2156,19 @@
         <v>5421602</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5367541</v>
+        <v>5358672</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5484069</v>
+        <v>5479909</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8191208538642538</v>
+        <v>0.8191208538642539</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8109531369866304</v>
+        <v>0.8096130886451439</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8285586832946134</v>
+        <v>0.8279301146704383</v>
       </c>
     </row>
     <row r="24">
